--- a/trunk/Mapeamento P1/Felipe/Mapeamento Técnico - APURACAO_ALOCACAO - ATUALIZADO.xlsx
+++ b/trunk/Mapeamento P1/Felipe/Mapeamento Técnico - APURACAO_ALOCACAO - ATUALIZADO.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="405" windowWidth="14700" windowHeight="5295" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="915" yWindow="405" windowWidth="14700" windowHeight="5295" tabRatio="953"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
     <sheet name="Origens Destinos e Definições" sheetId="10" r:id="rId2"/>
     <sheet name="Desenho - ODS_REMUNER_DOCENTE" sheetId="16" r:id="rId3"/>
     <sheet name="Mapeam. - ODS_REMUNER_DOCENTE" sheetId="8" r:id="rId4"/>
-    <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId5"/>
+    <sheet name="Desenho - ATU_ODS_REMUN_DOCENTE" sheetId="17" r:id="rId5"/>
+    <sheet name="Map - ATU_ODS_REM_DOCENTE" sheetId="18" r:id="rId6"/>
+    <sheet name="Desenho - ATU_ODS_REMUN_DOC RT" sheetId="19" r:id="rId7"/>
+    <sheet name="Map - ATU_ODS_REM_DOCENTE RT1" sheetId="20" r:id="rId8"/>
+    <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -102,8 +106,84 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>bajpaia</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRIMARY/ FORIEGN</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRIMARY/ FORIEGN</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>bajpaia</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRIMARY/ FORIEGN</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRIMARY/ FORIEGN</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="182">
   <si>
     <t>Schema</t>
   </si>
@@ -1061,12 +1141,134 @@
   <si>
     <t>REMUNERACAO_DOCENTE</t>
   </si>
+  <si>
+    <t>NOM_PROCESSO =  'APURACAO_ALOCACAO'
+AND IND_APTO_PAGAMENTO = 1
+AND TRUNC(P_DT_COMPETENCIA, 'MM') BETWEEN TRUNC(DT_INICIO_ALOCACAO, 'MM') AND TRUNC(DT_FIM_ALOCACAO, 'MM')
+AND NVL(IND_SUBSTITUICAO_PROF, 'N') = 'N'
+AND NVL(QTD_ALUNOS_MATRICULADOS, 0) &gt; 0
+AND IND_PAGAMENTO = 'S'
+AND NVL(IND_PAGAMENTO_ALOCACAO,'S') = 'S'
+AND IND_MODALIDADE = 'P'
+AND TABELA &lt;&gt; 'HTV'
+AND IND_TIPO_SALARIO = 'H'</t>
+  </si>
+  <si>
+    <t>V_CURSO_EXTENSAO := 'N';
+IF TABELA = 'HTE' THEN
+    V_CURSO_EXTENSAO := 'S';</t>
+  </si>
+  <si>
+    <t>CURSO_EXTENSAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IF IND_TIPO_CONTRATO IN ('F', 'S') THEN
+   V_DESTINO         := 1;
+ELSIF IND_TIPO_CONTRATO = 'P' THEN
+    V_DESTINO          := 2;
+END IF;</t>
+  </si>
+  <si>
+    <t>IND_DESTINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF IND_TELEPRESENCIAL = 'S' THEN
+  IF ID_TURNO IN (1,2) THEN
+       V_COD_TIPO_RUBRICA := 43;
+ELSE
+       V_COD_TIPO_RUBRICA := 42;
+  END IF;
+       ELSE
+          V_COD_TIPO_RUBRICA := 1;
+ END IF;
+</t>
+  </si>
+  <si>
+    <t>COD_TIPO_RUBRICA</t>
+  </si>
+  <si>
+    <t>DECODE(TABELA, 'HTE', NULL, COD_CURSO)</t>
+  </si>
+  <si>
+    <t>COD_CURSO_EXTENSAO</t>
+  </si>
+  <si>
+    <t>DECODETABELA, 'HTE', NULL,NUM_SEQ_TURMA)</t>
+  </si>
+  <si>
+    <t>NUM_SEQ_TURMA</t>
+  </si>
+  <si>
+    <t>DECODE(TABELA, 'HTE', NULL,NUM_SEQ_TURMA)</t>
+  </si>
+  <si>
+    <t>COD_TURMA_EXTENSAO</t>
+  </si>
+  <si>
+    <t>DECODE(V_COD_TIPO_RUBRICA, 1, V_QTD_CARGA_MENSAL, 42, V_QTD_CARGA_MENSAL, 43, V_QTD_CARGA_MENSAL, V_QTD_CARGA_MENSAL_AD_NOT)</t>
+  </si>
+  <si>
+    <t>Se PI_COD_TIPO_ATUACAO IS NOT NULL entao
+      SELECT CASE PI_IND_TIPO_CONTRATO 
+        WHEN 'F' THEN RI.COD_VERBA_RH
+        WHEN 'S' THEN RI.COD_VERBA_PRESTADOR
+         ELSE RI.COD_VERBA_PESSOA_JURIDICA
+                       END
+         INTO V_COD_VERBA_RH
+         FROM SIA.TIPO_ATUACAO TA ,SIA.RUBRICA_INTERFACE RI
+        WHERE TA.COD_TIPO_RUBRICA = RI.COD_TIPO_RUBRICA
+         AND TA.COD_TIPO_ATUACAO = PI_COD_TIPO_ATUACAO;
+Se PI_IND_ENSINO_DISTANCIA = 'S' AND PI_QTD_HORAS_TEORICO &lt;= 59 entao
+         SELECT SUBSTR(TXT_PARAMETRO, 1, 10)
+        INTO  V_COD_VERBA_RH
+           FROM SIA.PARAMETROS_PROFESSOR
+            WHERE COD_PARAMETRO = 7;
+     senao
+           Se PI_IND_ENSINO_DISTANCIA = 'S' AND PI_QTD_HORAS_TEORICO &gt;= 60 entao
+                          SELECT SUBSTR(TXT_PARAMETRO, 1, 10)
+                            INTO V_COD_VERBA_RH
+                          FROM SIA.PARAMETROS_PROFESSOR
+                         WHERE COD_PARAMETRO = 17;
+            Senao
+                     Se  V_COD_VERBA_RH IS NULL THEN
+                             PRO_OBTEM_VERBA_RH(TIPO_CURSO, COD_CAMPUS, NVL
+(COD_CURSO, COD_CURSO_EXTENSAO), COD_TURNO, IND_TIPO_CONTRATO, COD_TIPO_RUBRICA, 
+COD_INSTITUICAO);</t>
+  </si>
+  <si>
+    <t>PRO_OBTEM_CENTRO_RESULTADO(COD_TIPO_CURSO, COD_CAMPUS, NVL(COD_CURSO, COD_CURSO_EXTENSAO), COD_TURNO, NOM_PROCESSO, COD_TIPO_ATUACAO, COD_INSTITUICAO)</t>
+  </si>
+  <si>
+    <t>COD_CENTRO_RESULTADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOM_PROCESSO =  'APURACAO_ALOCACAO'
+AND IND_APTO_PAGAMENTO = 1
+V_DT_COMPETENCIA BETWEEN TRUNC(DT_INICIO_ALOCACAO,'MM')
+AND TRUNC(VAP.DT_FIM_ALOCACAO,'MM')
+AND NVL(IND_SUBSTITUICAO_PROF, 'N') = 'N'
+AND NVL(QTD_ALUNOS_MATRICULADOS, 0) &gt; 0
+AND IND_PAGAMENTO = 'S' 
+AND NVL(IND_PAGAMENTO_ALOCACAO,'S') = 'S'
+ANDIND_MODALIDADE = 'P'
+AND TABELA &lt;&gt; 'HTV'
+AND COD_INSTITUICAO NOT IN (1022,1809,1464) </t>
+  </si>
+  <si>
+    <t>FLAG_RETROATIVIDADE</t>
+  </si>
+  <si>
+    <t>valor fixo 'S'</t>
+  </si>
+  <si>
+    <t>FLAG_RETROATIVO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1627,7 +1829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1887,6 +2089,63 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1896,104 +2155,83 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2004,41 +2242,47 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2062,7 +2306,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2092,7 +2336,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2159,7 +2403,7 @@
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2207,7 +2451,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2230,14 +2474,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2280,7 +2524,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2303,14 +2547,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2324,52 +2568,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>24</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="15361" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s15361"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2459,7 +2657,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2494,7 +2691,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2670,17 +2866,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="16" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="16" customWidth="1"/>
@@ -2689,7 +2883,7 @@
     <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="18">
       <c r="C2" s="17" t="s">
         <v>58</v>
       </c>
@@ -2697,7 +2891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="15">
       <c r="C3" s="17" t="s">
         <v>59</v>
       </c>
@@ -2705,22 +2899,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="C4" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="C5" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="C6" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="13.5" thickBot="1">
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
@@ -2731,142 +2925,135 @@
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
     </row>
-    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="104" t="s">
+    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
+    <row r="9" spans="2:10">
+      <c r="B9" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="106"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="107"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="109"/>
-    </row>
-    <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="103"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="104"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="106"/>
+    </row>
+    <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="44" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110" t="s">
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="108"/>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C12" s="29">
         <v>41238</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="113"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="116"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E12" s="110"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="113"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="103"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="97"/>
       <c r="G13" s="98"/>
       <c r="H13" s="99"/>
       <c r="I13" s="99"/>
       <c r="J13" s="100"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
       <c r="G14" s="98"/>
       <c r="H14" s="99"/>
       <c r="I14" s="99"/>
       <c r="J14" s="100"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="98"/>
       <c r="H15" s="99"/>
       <c r="I15" s="99"/>
       <c r="J15" s="100"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
       <c r="G16" s="98"/>
       <c r="H16" s="99"/>
       <c r="I16" s="99"/>
       <c r="J16" s="100"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="97"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="116"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="97"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -2877,6 +3064,13 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -2886,7 +3080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2896,7 +3090,7 @@
       <selection activeCell="D8" sqref="D8:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="16" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="16" customWidth="1"/>
@@ -2905,7 +3099,7 @@
     <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="18">
       <c r="C2" s="17" t="s">
         <v>58</v>
       </c>
@@ -2914,7 +3108,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="15">
       <c r="C3" s="17" t="s">
         <v>59</v>
       </c>
@@ -2923,7 +3117,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="13.5" thickBot="1">
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
@@ -2934,60 +3128,60 @@
       <c r="I4" s="43"/>
       <c r="J4" s="43"/>
     </row>
-    <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="118" t="s">
+    <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
+    <row r="6" spans="2:10">
+      <c r="B6" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="51" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="118" t="s">
+      <c r="D7" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="52"/>
       <c r="C8" s="53"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="52"/>
       <c r="C9" s="53"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-    </row>
-    <row r="10" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="124"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
+    </row>
+    <row r="10" spans="2:10" ht="13.5" thickBot="1">
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2998,20 +3192,20 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="119" t="s">
+    <row r="11" spans="2:10">
+      <c r="B11" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-    </row>
-    <row r="12" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+    </row>
+    <row r="12" spans="2:10" ht="23.25" customHeight="1">
       <c r="B12" s="47" t="s">
         <v>65</v>
       </c>
@@ -3021,40 +3215,40 @@
       <c r="D12" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="127" t="s">
+      <c r="E12" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="129"/>
-      <c r="G12" s="127" t="s">
+      <c r="F12" s="128"/>
+      <c r="G12" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="129"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="128"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="1"/>
       <c r="C13" s="9"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E13" s="122"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="1"/>
       <c r="C14" s="9"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-    </row>
-    <row r="15" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="122"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+    </row>
+    <row r="15" spans="2:10" ht="13.5" thickBot="1">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3065,14 +3259,14 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="119" t="s">
+    <row r="16" spans="2:10" ht="25.5" customHeight="1">
+      <c r="B16" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="46" t="s">
         <v>66</v>
       </c>
@@ -3083,17 +3277,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3104,20 +3298,20 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="118" t="s">
+    <row r="21" spans="2:10" ht="12.75" customHeight="1">
+      <c r="B21" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
-    </row>
-    <row r="22" spans="2:10" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+    </row>
+    <row r="22" spans="2:10" ht="23.25">
       <c r="B22" s="51" t="s">
         <v>71</v>
       </c>
@@ -3127,52 +3321,59 @@
       <c r="D22" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="122" t="s">
+      <c r="E22" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122" t="s">
+      <c r="F22" s="121"/>
+      <c r="G22" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="121"/>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="12"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" s="12"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="117"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="130"/>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25" s="12"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:J23"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="D8:J8"/>
@@ -3187,13 +3388,6 @@
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:J23"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3204,64 +3398,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="15361" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>24</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="15361" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Visio.Drawing.11" shapeId="15361" r:id="rId3"/>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AF104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="R55" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S4" sqref="S4:S63"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -3294,52 +3461,52 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29">
       <c r="D1" s="81"/>
       <c r="Q1" s="56"/>
       <c r="R1" s="56"/>
       <c r="S1" s="56"/>
       <c r="T1" s="56"/>
     </row>
-    <row r="2" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="142" t="s">
+    <row r="2" spans="1:29" ht="25.5" customHeight="1">
+      <c r="B2" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="144" t="s">
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="144"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="140" t="s">
+      <c r="O2" s="135"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="141"/>
-      <c r="AB2" s="141"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="132"/>
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="23.25">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -3423,7 +3590,7 @@
       </c>
       <c r="AC3" s="41"/>
     </row>
-    <row r="4" spans="1:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" s="11" customFormat="1" ht="12">
       <c r="A4" s="15"/>
       <c r="B4" s="70" t="s">
         <v>97</v>
@@ -3490,7 +3657,7 @@
       <c r="AB4" s="70"/>
       <c r="AC4" s="70"/>
     </row>
-    <row r="5" spans="1:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" s="11" customFormat="1" ht="12">
       <c r="A5" s="15"/>
       <c r="B5" s="70" t="s">
         <v>97</v>
@@ -3557,7 +3724,7 @@
       <c r="AB5" s="70"/>
       <c r="AC5" s="70"/>
     </row>
-    <row r="6" spans="1:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" s="10" customFormat="1" ht="12">
       <c r="B6" s="70" t="s">
         <v>97</v>
       </c>
@@ -3623,7 +3790,7 @@
       <c r="AB6" s="70"/>
       <c r="AC6" s="70"/>
     </row>
-    <row r="7" spans="1:29" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" s="15" customFormat="1" ht="11.25" customHeight="1">
       <c r="B7" s="70" t="s">
         <v>97</v>
       </c>
@@ -3689,7 +3856,7 @@
       <c r="AB7" s="70"/>
       <c r="AC7" s="70"/>
     </row>
-    <row r="8" spans="1:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" s="11" customFormat="1" ht="12">
       <c r="A8" s="15"/>
       <c r="B8" s="70" t="s">
         <v>97</v>
@@ -3756,7 +3923,7 @@
       <c r="AB8" s="70"/>
       <c r="AC8" s="70"/>
     </row>
-    <row r="9" spans="1:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" s="11" customFormat="1" ht="12">
       <c r="A9" s="15"/>
       <c r="B9" s="70" t="s">
         <v>97</v>
@@ -3827,7 +3994,7 @@
       <c r="AB9" s="72"/>
       <c r="AC9" s="72"/>
     </row>
-    <row r="10" spans="1:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" s="11" customFormat="1" ht="12">
       <c r="A10" s="15"/>
       <c r="B10" s="70" t="s">
         <v>97</v>
@@ -3894,7 +4061,7 @@
       <c r="AB10" s="72"/>
       <c r="AC10" s="72"/>
     </row>
-    <row r="11" spans="1:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" s="11" customFormat="1" ht="12">
       <c r="A11" s="15"/>
       <c r="B11" s="70" t="s">
         <v>97</v>
@@ -3961,7 +4128,7 @@
       <c r="AB11" s="72"/>
       <c r="AC11" s="72"/>
     </row>
-    <row r="12" spans="1:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" s="10" customFormat="1" ht="12">
       <c r="B12" s="70" t="s">
         <v>97</v>
       </c>
@@ -4027,7 +4194,7 @@
       <c r="AB12" s="72"/>
       <c r="AC12" s="72"/>
     </row>
-    <row r="13" spans="1:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" s="15" customFormat="1" ht="12">
       <c r="B13" s="70" t="s">
         <v>97</v>
       </c>
@@ -4093,7 +4260,7 @@
       <c r="AB13" s="72"/>
       <c r="AC13" s="72"/>
     </row>
-    <row r="14" spans="1:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" s="15" customFormat="1" ht="12">
       <c r="B14" s="70" t="s">
         <v>97</v>
       </c>
@@ -4159,7 +4326,7 @@
       <c r="AB14" s="72"/>
       <c r="AC14" s="72"/>
     </row>
-    <row r="15" spans="1:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" s="15" customFormat="1" ht="12">
       <c r="B15" s="70" t="s">
         <v>97</v>
       </c>
@@ -4229,7 +4396,7 @@
       <c r="AB15" s="72"/>
       <c r="AC15" s="72"/>
     </row>
-    <row r="16" spans="1:29" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="65"/>
       <c r="B16" s="70" t="s">
         <v>97</v>
@@ -4296,7 +4463,7 @@
       <c r="AB16" s="70"/>
       <c r="AC16" s="70"/>
     </row>
-    <row r="17" spans="1:29" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="65"/>
       <c r="B17" s="70" t="s">
         <v>97</v>
@@ -4363,7 +4530,7 @@
       <c r="AB17" s="70"/>
       <c r="AC17" s="70"/>
     </row>
-    <row r="18" spans="1:29" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="65"/>
       <c r="B18" s="70" t="s">
         <v>97</v>
@@ -4426,7 +4593,7 @@
       <c r="AB18" s="70"/>
       <c r="AC18" s="70"/>
     </row>
-    <row r="19" spans="1:29" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" s="3" customFormat="1" ht="11.25" customHeight="1">
       <c r="A19" s="65"/>
       <c r="B19" s="70" t="s">
         <v>97</v>
@@ -4493,7 +4660,7 @@
       <c r="AB19" s="70"/>
       <c r="AC19" s="70"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29">
       <c r="A20" s="60"/>
       <c r="B20" s="70" t="s">
         <v>97</v>
@@ -4564,7 +4731,7 @@
       <c r="AB20" s="70"/>
       <c r="AC20" s="70"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29">
       <c r="A21" s="60"/>
       <c r="B21" s="70" t="s">
         <v>97</v>
@@ -4627,7 +4794,7 @@
       <c r="AB21" s="70"/>
       <c r="AC21" s="70"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29">
       <c r="A22" s="60"/>
       <c r="B22" s="70" t="s">
         <v>97</v>
@@ -4698,7 +4865,7 @@
       <c r="AB22" s="70"/>
       <c r="AC22" s="70"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29">
       <c r="A23" s="60"/>
       <c r="B23" s="70" t="s">
         <v>97</v>
@@ -4765,7 +4932,7 @@
       <c r="AB23" s="70"/>
       <c r="AC23" s="70"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29">
       <c r="A24" s="60"/>
       <c r="B24" s="70" t="s">
         <v>97</v>
@@ -4836,7 +5003,7 @@
       <c r="AB24" s="70"/>
       <c r="AC24" s="70"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29">
       <c r="A25" s="60"/>
       <c r="B25" s="70" t="s">
         <v>97</v>
@@ -4903,7 +5070,7 @@
       <c r="AB25" s="70"/>
       <c r="AC25" s="70"/>
     </row>
-    <row r="26" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="12" customHeight="1">
       <c r="A26" s="60"/>
       <c r="B26" s="70" t="s">
         <v>97</v>
@@ -4970,7 +5137,7 @@
       <c r="AB26" s="70"/>
       <c r="AC26" s="70"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29">
       <c r="A27" s="60"/>
       <c r="B27" s="70" t="s">
         <v>97</v>
@@ -5037,7 +5204,7 @@
       <c r="AB27" s="70"/>
       <c r="AC27" s="70"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29">
       <c r="A28" s="60"/>
       <c r="B28" s="70" t="s">
         <v>97</v>
@@ -5104,7 +5271,7 @@
       <c r="AB28" s="70"/>
       <c r="AC28" s="70"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29">
       <c r="A29" s="60"/>
       <c r="B29" s="70" t="s">
         <v>97</v>
@@ -5171,7 +5338,7 @@
       <c r="AB29" s="70"/>
       <c r="AC29" s="70"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29">
       <c r="A30" s="60"/>
       <c r="B30" s="70" t="s">
         <v>97</v>
@@ -5238,7 +5405,7 @@
       <c r="AB30" s="70"/>
       <c r="AC30" s="70"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29">
       <c r="A31" s="60"/>
       <c r="B31" s="70" t="s">
         <v>97</v>
@@ -5309,7 +5476,7 @@
       <c r="AB31" s="70"/>
       <c r="AC31" s="70"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29">
       <c r="A32" s="60"/>
       <c r="B32" s="70" t="s">
         <v>97</v>
@@ -5376,7 +5543,7 @@
       <c r="AB32" s="70"/>
       <c r="AC32" s="70"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29">
       <c r="A33" s="60"/>
       <c r="B33" s="70" t="s">
         <v>97</v>
@@ -5439,7 +5606,7 @@
       <c r="AB33" s="70"/>
       <c r="AC33" s="70"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29">
       <c r="A34" s="60"/>
       <c r="B34" s="70" t="s">
         <v>97</v>
@@ -5502,7 +5669,7 @@
       <c r="AB34" s="70"/>
       <c r="AC34" s="70"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29">
       <c r="A35" s="60"/>
       <c r="B35" s="70" t="s">
         <v>97</v>
@@ -5565,7 +5732,7 @@
       <c r="AB35" s="70"/>
       <c r="AC35" s="70"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29">
       <c r="A36" s="60"/>
       <c r="B36" s="70" t="s">
         <v>97</v>
@@ -5636,7 +5803,7 @@
       <c r="AB36" s="70"/>
       <c r="AC36" s="70"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29">
       <c r="A37" s="60"/>
       <c r="B37" s="90"/>
       <c r="C37" s="90"/>
@@ -5693,7 +5860,7 @@
       <c r="AB37" s="70"/>
       <c r="AC37" s="70"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29">
       <c r="A38" s="60"/>
       <c r="B38" s="70" t="s">
         <v>97</v>
@@ -5764,7 +5931,7 @@
       <c r="AB38" s="70"/>
       <c r="AC38" s="70"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29">
       <c r="A39" s="60"/>
       <c r="B39" s="70" t="s">
         <v>97</v>
@@ -5831,7 +5998,7 @@
       <c r="AB39" s="70"/>
       <c r="AC39" s="70"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29">
       <c r="A40" s="60"/>
       <c r="B40" s="70" t="s">
         <v>97</v>
@@ -5898,7 +6065,7 @@
       <c r="AB40" s="70"/>
       <c r="AC40" s="70"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29">
       <c r="A41" s="60"/>
       <c r="B41" s="70" t="s">
         <v>97</v>
@@ -5961,7 +6128,7 @@
       <c r="AB41" s="70"/>
       <c r="AC41" s="70"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29">
       <c r="A42" s="60"/>
       <c r="B42" s="70" t="s">
         <v>97</v>
@@ -6024,7 +6191,7 @@
       <c r="AB42" s="70"/>
       <c r="AC42" s="70"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29">
       <c r="A43" s="60"/>
       <c r="B43" s="70" t="s">
         <v>97</v>
@@ -6091,7 +6258,7 @@
       <c r="AB43" s="70"/>
       <c r="AC43" s="70"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29">
       <c r="A44" s="60"/>
       <c r="B44" s="70" t="s">
         <v>97</v>
@@ -6162,7 +6329,7 @@
       <c r="AB44" s="70"/>
       <c r="AC44" s="70"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29">
       <c r="A45" s="60"/>
       <c r="B45" s="70" t="s">
         <v>97</v>
@@ -6225,7 +6392,7 @@
       <c r="AB45" s="70"/>
       <c r="AC45" s="70"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29">
       <c r="A46" s="60"/>
       <c r="B46" s="70" t="s">
         <v>97</v>
@@ -6288,7 +6455,7 @@
       <c r="AB46" s="70"/>
       <c r="AC46" s="70"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29">
       <c r="A47" s="60"/>
       <c r="B47" s="70" t="s">
         <v>97</v>
@@ -6355,7 +6522,7 @@
       <c r="AB47" s="70"/>
       <c r="AC47" s="70"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29">
       <c r="A48" s="60"/>
       <c r="B48" s="70" t="s">
         <v>97</v>
@@ -6422,7 +6589,7 @@
       <c r="AB48" s="70"/>
       <c r="AC48" s="70"/>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29">
       <c r="A49" s="60"/>
       <c r="B49" s="70" t="s">
         <v>97</v>
@@ -6489,7 +6656,7 @@
       <c r="AB49" s="70"/>
       <c r="AC49" s="70"/>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29">
       <c r="A50" s="60"/>
       <c r="B50" s="70" t="s">
         <v>97</v>
@@ -6560,7 +6727,7 @@
       <c r="AB50" s="70"/>
       <c r="AC50" s="70"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29">
       <c r="A51" s="60"/>
       <c r="B51" s="70" t="s">
         <v>97</v>
@@ -6631,7 +6798,7 @@
       <c r="AB51" s="70"/>
       <c r="AC51" s="70"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29">
       <c r="A52" s="60"/>
       <c r="B52" s="70" t="s">
         <v>97</v>
@@ -6694,7 +6861,7 @@
       <c r="AB52" s="70"/>
       <c r="AC52" s="70"/>
     </row>
-    <row r="53" spans="1:29" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" ht="48">
       <c r="A53" s="60"/>
       <c r="B53" s="85"/>
       <c r="C53" s="85"/>
@@ -6753,7 +6920,7 @@
       <c r="AB53" s="70"/>
       <c r="AC53" s="70"/>
     </row>
-    <row r="54" spans="1:29" ht="48" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" ht="48">
       <c r="A54" s="60"/>
       <c r="B54" s="85"/>
       <c r="C54" s="85"/>
@@ -6812,7 +6979,7 @@
       <c r="AB54" s="70"/>
       <c r="AC54" s="70"/>
     </row>
-    <row r="55" spans="1:29" ht="48" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" ht="48">
       <c r="B55" s="85"/>
       <c r="C55" s="85"/>
       <c r="D55" s="85"/>
@@ -6870,7 +7037,7 @@
       <c r="AB55" s="70"/>
       <c r="AC55" s="70"/>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29">
       <c r="B56" s="70" t="s">
         <v>97</v>
       </c>
@@ -6942,7 +7109,7 @@
       <c r="AB56" s="70"/>
       <c r="AC56" s="70"/>
     </row>
-    <row r="57" spans="1:29" ht="48" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" ht="48">
       <c r="B57" s="85"/>
       <c r="C57" s="85"/>
       <c r="D57" s="85"/>
@@ -7004,7 +7171,7 @@
       <c r="AB57" s="70"/>
       <c r="AC57" s="70"/>
     </row>
-    <row r="58" spans="1:29" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" ht="42.75" customHeight="1">
       <c r="B58" s="70" t="s">
         <v>97</v>
       </c>
@@ -7035,7 +7202,7 @@
       </c>
       <c r="L58" s="70"/>
       <c r="M58" s="70"/>
-      <c r="N58" s="131" t="s">
+      <c r="N58" s="143" t="s">
         <v>146</v>
       </c>
       <c r="O58" s="137"/>
@@ -7043,19 +7210,19 @@
       <c r="Q58" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="R58" s="134" t="s">
+      <c r="R58" s="140" t="s">
         <v>98</v>
       </c>
       <c r="S58" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="T58" s="134" t="s">
+      <c r="T58" s="140" t="s">
         <v>145</v>
       </c>
-      <c r="U58" s="134" t="s">
+      <c r="U58" s="140" t="s">
         <v>145</v>
       </c>
-      <c r="V58" s="131"/>
+      <c r="V58" s="143"/>
       <c r="W58" s="70" t="s">
         <v>154</v>
       </c>
@@ -7066,11 +7233,11 @@
         <v>5</v>
       </c>
       <c r="Z58" s="70"/>
-      <c r="AA58" s="131"/>
-      <c r="AB58" s="131"/>
-      <c r="AC58" s="131"/>
-    </row>
-    <row r="59" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA58" s="143"/>
+      <c r="AB58" s="143"/>
+      <c r="AC58" s="143"/>
+    </row>
+    <row r="59" spans="1:29" ht="37.5" customHeight="1">
       <c r="B59" s="70" t="s">
         <v>97</v>
       </c>
@@ -7101,19 +7268,19 @@
       </c>
       <c r="L59" s="70"/>
       <c r="M59" s="70"/>
-      <c r="N59" s="132"/>
+      <c r="N59" s="144"/>
       <c r="O59" s="138"/>
       <c r="P59" s="138"/>
       <c r="Q59" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="R59" s="135"/>
+      <c r="R59" s="141"/>
       <c r="S59" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="T59" s="135"/>
-      <c r="U59" s="135"/>
-      <c r="V59" s="132"/>
+      <c r="T59" s="141"/>
+      <c r="U59" s="141"/>
+      <c r="V59" s="144"/>
       <c r="W59" s="70" t="s">
         <v>154</v>
       </c>
@@ -7124,11 +7291,11 @@
         <v>5</v>
       </c>
       <c r="Z59" s="70"/>
-      <c r="AA59" s="132"/>
-      <c r="AB59" s="132"/>
-      <c r="AC59" s="132"/>
-    </row>
-    <row r="60" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA59" s="144"/>
+      <c r="AB59" s="144"/>
+      <c r="AC59" s="144"/>
+    </row>
+    <row r="60" spans="1:29" ht="37.5" customHeight="1">
       <c r="B60" s="70" t="s">
         <v>97</v>
       </c>
@@ -7159,19 +7326,19 @@
       </c>
       <c r="L60" s="70"/>
       <c r="M60" s="70"/>
-      <c r="N60" s="133"/>
+      <c r="N60" s="145"/>
       <c r="O60" s="139"/>
       <c r="P60" s="139"/>
       <c r="Q60" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="R60" s="136"/>
+      <c r="R60" s="142"/>
       <c r="S60" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="T60" s="136"/>
-      <c r="U60" s="136"/>
-      <c r="V60" s="133"/>
+      <c r="T60" s="142"/>
+      <c r="U60" s="142"/>
+      <c r="V60" s="145"/>
       <c r="W60" s="70" t="s">
         <v>154</v>
       </c>
@@ -7182,11 +7349,11 @@
         <v>1</v>
       </c>
       <c r="Z60" s="70"/>
-      <c r="AA60" s="133"/>
-      <c r="AB60" s="133"/>
-      <c r="AC60" s="133"/>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AA60" s="145"/>
+      <c r="AB60" s="145"/>
+      <c r="AC60" s="145"/>
+    </row>
+    <row r="61" spans="1:29">
       <c r="B61" s="85"/>
       <c r="C61" s="85"/>
       <c r="D61" s="85"/>
@@ -7244,7 +7411,7 @@
       <c r="AB61" s="91"/>
       <c r="AC61" s="70"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29">
       <c r="B62" s="85"/>
       <c r="C62" s="85"/>
       <c r="D62" s="85"/>
@@ -7302,7 +7469,7 @@
       <c r="AB62" s="91"/>
       <c r="AC62" s="70"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29">
       <c r="B63" s="85"/>
       <c r="C63" s="85"/>
       <c r="D63" s="85"/>
@@ -7356,7 +7523,7 @@
       <c r="AB63" s="91"/>
       <c r="AC63" s="70"/>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29">
       <c r="B64" s="60"/>
       <c r="C64" s="60"/>
       <c r="D64" s="61"/>
@@ -7386,7 +7553,7 @@
       <c r="AB64" s="60"/>
       <c r="AC64" s="65"/>
     </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:29">
       <c r="B65" s="60"/>
       <c r="C65" s="60"/>
       <c r="D65" s="61"/>
@@ -7416,7 +7583,7 @@
       <c r="AB65" s="60"/>
       <c r="AC65" s="65"/>
     </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:29">
       <c r="B66" s="60"/>
       <c r="C66" s="60"/>
       <c r="D66" s="61"/>
@@ -7446,7 +7613,7 @@
       <c r="AB66" s="60"/>
       <c r="AC66" s="65"/>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29">
       <c r="B67" s="60"/>
       <c r="C67" s="60"/>
       <c r="D67" s="61"/>
@@ -7476,7 +7643,7 @@
       <c r="AB67" s="60"/>
       <c r="AC67" s="65"/>
     </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:29">
       <c r="B68" s="60"/>
       <c r="C68" s="60"/>
       <c r="D68" s="61"/>
@@ -7506,7 +7673,7 @@
       <c r="AB68" s="60"/>
       <c r="AC68" s="65"/>
     </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:29">
       <c r="B69" s="60"/>
       <c r="C69" s="60"/>
       <c r="D69" s="61"/>
@@ -7528,7 +7695,7 @@
       <c r="T69" s="64"/>
       <c r="U69" s="60"/>
     </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:29">
       <c r="B70" s="60"/>
       <c r="C70" s="60"/>
       <c r="D70" s="61"/>
@@ -7550,7 +7717,7 @@
       <c r="T70" s="64"/>
       <c r="U70" s="60"/>
     </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:29">
       <c r="B71" s="60"/>
       <c r="C71" s="60"/>
       <c r="D71" s="61"/>
@@ -7572,7 +7739,7 @@
       <c r="T71" s="64"/>
       <c r="U71" s="60"/>
     </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:29">
       <c r="B72" s="60"/>
       <c r="C72" s="60"/>
       <c r="D72" s="61"/>
@@ -7594,7 +7761,7 @@
       <c r="T72" s="64"/>
       <c r="U72" s="60"/>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29">
       <c r="B73" s="60"/>
       <c r="C73" s="60"/>
       <c r="D73" s="61"/>
@@ -7616,7 +7783,7 @@
       <c r="T73" s="64"/>
       <c r="U73" s="60"/>
     </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:29">
       <c r="B74" s="60"/>
       <c r="C74" s="60"/>
       <c r="D74" s="61"/>
@@ -7638,7 +7805,7 @@
       <c r="T74" s="64"/>
       <c r="U74" s="60"/>
     </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:29">
       <c r="B75" s="60"/>
       <c r="C75" s="60"/>
       <c r="D75" s="61"/>
@@ -7660,7 +7827,7 @@
       <c r="T75" s="64"/>
       <c r="U75" s="60"/>
     </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:29">
       <c r="B76" s="60"/>
       <c r="C76" s="60"/>
       <c r="D76" s="61"/>
@@ -7682,7 +7849,7 @@
       <c r="T76" s="64"/>
       <c r="U76" s="60"/>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29">
       <c r="B77" s="60"/>
       <c r="C77" s="60"/>
       <c r="D77" s="61"/>
@@ -7704,7 +7871,7 @@
       <c r="T77" s="64"/>
       <c r="U77" s="60"/>
     </row>
-    <row r="78" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:29">
       <c r="B78" s="60"/>
       <c r="C78" s="60"/>
       <c r="D78" s="61"/>
@@ -7726,7 +7893,7 @@
       <c r="T78" s="64"/>
       <c r="U78" s="60"/>
     </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:29">
       <c r="B79" s="60"/>
       <c r="C79" s="60"/>
       <c r="D79" s="61"/>
@@ -7748,7 +7915,7 @@
       <c r="T79" s="64"/>
       <c r="U79" s="60"/>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29">
       <c r="B80" s="60"/>
       <c r="C80" s="60"/>
       <c r="D80" s="61"/>
@@ -7770,7 +7937,7 @@
       <c r="T80" s="64"/>
       <c r="U80" s="60"/>
     </row>
-    <row r="81" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:21">
       <c r="B81" s="60"/>
       <c r="C81" s="60"/>
       <c r="D81" s="61"/>
@@ -7792,7 +7959,7 @@
       <c r="T81" s="64"/>
       <c r="U81" s="60"/>
     </row>
-    <row r="82" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:21">
       <c r="B82" s="60"/>
       <c r="C82" s="60"/>
       <c r="D82" s="61"/>
@@ -7814,7 +7981,7 @@
       <c r="T82" s="64"/>
       <c r="U82" s="60"/>
     </row>
-    <row r="83" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:21">
       <c r="B83" s="60"/>
       <c r="C83" s="60"/>
       <c r="D83" s="61"/>
@@ -7836,7 +8003,7 @@
       <c r="T83" s="64"/>
       <c r="U83" s="60"/>
     </row>
-    <row r="84" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:21">
       <c r="B84" s="60"/>
       <c r="C84" s="60"/>
       <c r="D84" s="61"/>
@@ -7858,7 +8025,7 @@
       <c r="T84" s="64"/>
       <c r="U84" s="60"/>
     </row>
-    <row r="85" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:21">
       <c r="B85" s="60"/>
       <c r="C85" s="60"/>
       <c r="D85" s="61"/>
@@ -7880,7 +8047,7 @@
       <c r="T85" s="64"/>
       <c r="U85" s="60"/>
     </row>
-    <row r="86" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:21">
       <c r="B86" s="60"/>
       <c r="C86" s="60"/>
       <c r="D86" s="61"/>
@@ -7902,7 +8069,7 @@
       <c r="T86" s="64"/>
       <c r="U86" s="60"/>
     </row>
-    <row r="87" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:21">
       <c r="B87" s="60"/>
       <c r="C87" s="60"/>
       <c r="D87" s="61"/>
@@ -7924,7 +8091,7 @@
       <c r="T87" s="64"/>
       <c r="U87" s="60"/>
     </row>
-    <row r="88" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:21">
       <c r="B88" s="60"/>
       <c r="C88" s="60"/>
       <c r="D88" s="61"/>
@@ -7946,7 +8113,7 @@
       <c r="T88" s="64"/>
       <c r="U88" s="60"/>
     </row>
-    <row r="89" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:21">
       <c r="B89" s="60"/>
       <c r="C89" s="60"/>
       <c r="D89" s="61"/>
@@ -7968,7 +8135,7 @@
       <c r="T89" s="64"/>
       <c r="U89" s="60"/>
     </row>
-    <row r="90" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:21">
       <c r="B90" s="60"/>
       <c r="C90" s="60"/>
       <c r="D90" s="61"/>
@@ -7990,7 +8157,7 @@
       <c r="T90" s="64"/>
       <c r="U90" s="60"/>
     </row>
-    <row r="91" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:21">
       <c r="B91" s="60"/>
       <c r="C91" s="60"/>
       <c r="D91" s="61"/>
@@ -8012,7 +8179,7 @@
       <c r="T91" s="64"/>
       <c r="U91" s="60"/>
     </row>
-    <row r="92" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:21">
       <c r="B92" s="60"/>
       <c r="C92" s="60"/>
       <c r="D92" s="61"/>
@@ -8034,7 +8201,7 @@
       <c r="T92" s="64"/>
       <c r="U92" s="60"/>
     </row>
-    <row r="93" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:21">
       <c r="B93" s="60"/>
       <c r="C93" s="60"/>
       <c r="D93" s="61"/>
@@ -8056,7 +8223,7 @@
       <c r="T93" s="64"/>
       <c r="U93" s="60"/>
     </row>
-    <row r="94" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:21">
       <c r="B94" s="60"/>
       <c r="C94" s="60"/>
       <c r="D94" s="61"/>
@@ -8078,7 +8245,7 @@
       <c r="T94" s="64"/>
       <c r="U94" s="60"/>
     </row>
-    <row r="95" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:21">
       <c r="B95" s="60"/>
       <c r="C95" s="60"/>
       <c r="D95" s="61"/>
@@ -8100,7 +8267,7 @@
       <c r="T95" s="64"/>
       <c r="U95" s="60"/>
     </row>
-    <row r="96" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:21">
       <c r="B96" s="60"/>
       <c r="C96" s="60"/>
       <c r="D96" s="61"/>
@@ -8122,7 +8289,7 @@
       <c r="T96" s="64"/>
       <c r="U96" s="60"/>
     </row>
-    <row r="97" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:21">
       <c r="B97" s="60"/>
       <c r="C97" s="60"/>
       <c r="D97" s="61"/>
@@ -8144,7 +8311,7 @@
       <c r="T97" s="64"/>
       <c r="U97" s="60"/>
     </row>
-    <row r="98" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:21">
       <c r="B98" s="60"/>
       <c r="C98" s="60"/>
       <c r="D98" s="61"/>
@@ -8166,7 +8333,7 @@
       <c r="T98" s="64"/>
       <c r="U98" s="60"/>
     </row>
-    <row r="99" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:21">
       <c r="B99" s="60"/>
       <c r="C99" s="60"/>
       <c r="D99" s="61"/>
@@ -8188,7 +8355,7 @@
       <c r="T99" s="64"/>
       <c r="U99" s="60"/>
     </row>
-    <row r="100" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:21">
       <c r="B100" s="60"/>
       <c r="C100" s="60"/>
       <c r="D100" s="61"/>
@@ -8210,7 +8377,7 @@
       <c r="T100" s="64"/>
       <c r="U100" s="60"/>
     </row>
-    <row r="101" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:21">
       <c r="B101" s="60"/>
       <c r="C101" s="60"/>
       <c r="D101" s="61"/>
@@ -8232,7 +8399,7 @@
       <c r="T101" s="64"/>
       <c r="U101" s="60"/>
     </row>
-    <row r="102" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:21">
       <c r="B102" s="60"/>
       <c r="C102" s="60"/>
       <c r="D102" s="61"/>
@@ -8254,7 +8421,7 @@
       <c r="T102" s="64"/>
       <c r="U102" s="60"/>
     </row>
-    <row r="103" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:21">
       <c r="B103" s="60"/>
       <c r="C103" s="60"/>
       <c r="D103" s="61"/>
@@ -8276,7 +8443,7 @@
       <c r="T103" s="64"/>
       <c r="U103" s="60"/>
     </row>
-    <row r="104" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:21">
       <c r="B104" s="60"/>
       <c r="C104" s="60"/>
       <c r="D104" s="61"/>
@@ -8300,6 +8467,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AC58:AC60"/>
+    <mergeCell ref="U58:U60"/>
+    <mergeCell ref="V58:V60"/>
+    <mergeCell ref="N58:N60"/>
+    <mergeCell ref="O58:O60"/>
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
@@ -8308,11 +8480,6 @@
     <mergeCell ref="T58:T60"/>
     <mergeCell ref="AA58:AA60"/>
     <mergeCell ref="AB58:AB60"/>
-    <mergeCell ref="AC58:AC60"/>
-    <mergeCell ref="U58:U60"/>
-    <mergeCell ref="V58:V60"/>
-    <mergeCell ref="N58:N60"/>
-    <mergeCell ref="O58:O60"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -8322,7 +8489,4239 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
+  <oleObjects>
+    <oleObject progId="Visio.Drawing.11" shapeId="17409" r:id="rId2"/>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AG54"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" style="54" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="19" style="2" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" style="55" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="24.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" style="55" customWidth="1"/>
+    <col min="19" max="19" width="24.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.85546875" style="55" customWidth="1"/>
+    <col min="21" max="21" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="9.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" style="2" customWidth="1"/>
+    <col min="26" max="27" width="13.5703125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="39.7109375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="28.5703125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="12.140625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="8.28515625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="38.85546875" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="30.5703125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="D1" s="81"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+    </row>
+    <row r="2" spans="1:33" ht="25.5" customHeight="1">
+      <c r="B2" s="133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="135" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="135"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="131" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="132"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="132"/>
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="23.25">
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB3" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="41"/>
+    </row>
+    <row r="4" spans="1:33" s="3" customFormat="1" ht="144">
+      <c r="A4" s="2"/>
+      <c r="B4" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" s="74">
+        <v>2</v>
+      </c>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="O4" s="148"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="R4" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="S4" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="T4" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="U4" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="V4" s="150"/>
+      <c r="W4" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="X4" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y4" s="74">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="150"/>
+      <c r="AB4" s="150"/>
+      <c r="AC4" s="74"/>
+      <c r="AG4" s="2"/>
+    </row>
+    <row r="5" spans="1:33" s="15" customFormat="1" ht="36">
+      <c r="B5" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J5" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="K5" s="74">
+        <v>3</v>
+      </c>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="O5" s="148"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="R5" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="S5" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="T5" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="U5" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="V5" s="147"/>
+      <c r="W5" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="X5" s="147"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
+    </row>
+    <row r="6" spans="1:33" s="3" customFormat="1" ht="60">
+      <c r="A6" s="60"/>
+      <c r="B6" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J6" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="74">
+        <v>1</v>
+      </c>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="O6" s="148"/>
+      <c r="P6" s="149"/>
+      <c r="Q6" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="R6" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="S6" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="T6" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="U6" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="X6" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y6" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="74"/>
+      <c r="AG6" s="2"/>
+    </row>
+    <row r="7" spans="1:33" s="3" customFormat="1">
+      <c r="A7" s="60"/>
+      <c r="B7" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" s="74">
+        <v>1</v>
+      </c>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="140" t="s">
+        <v>166</v>
+      </c>
+      <c r="O7" s="140"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="140" t="s">
+        <v>160</v>
+      </c>
+      <c r="R7" s="140" t="s">
+        <v>98</v>
+      </c>
+      <c r="S7" s="140" t="s">
+        <v>160</v>
+      </c>
+      <c r="T7" s="140" t="s">
+        <v>167</v>
+      </c>
+      <c r="U7" s="140" t="s">
+        <v>167</v>
+      </c>
+      <c r="V7" s="140"/>
+      <c r="W7" s="140" t="s">
+        <v>154</v>
+      </c>
+      <c r="X7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="140"/>
+      <c r="AB7" s="140"/>
+      <c r="AC7" s="140"/>
+      <c r="AG7" s="2"/>
+    </row>
+    <row r="8" spans="1:33" s="3" customFormat="1">
+      <c r="A8" s="60"/>
+      <c r="B8" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J8" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="74">
+        <v>40</v>
+      </c>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="142"/>
+      <c r="O8" s="142"/>
+      <c r="P8" s="142"/>
+      <c r="Q8" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="R8" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="S8" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="T8" s="142"/>
+      <c r="U8" s="142"/>
+      <c r="V8" s="142"/>
+      <c r="W8" s="142" t="s">
+        <v>154</v>
+      </c>
+      <c r="X8" s="142"/>
+      <c r="Y8" s="142"/>
+      <c r="Z8" s="142"/>
+      <c r="AA8" s="142"/>
+      <c r="AB8" s="142"/>
+      <c r="AC8" s="142"/>
+      <c r="AG8" s="2"/>
+    </row>
+    <row r="9" spans="1:33" s="15" customFormat="1" ht="12">
+      <c r="B9" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J9" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9" s="74">
+        <v>3</v>
+      </c>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="140" t="s">
+        <v>168</v>
+      </c>
+      <c r="O9" s="140"/>
+      <c r="P9" s="140"/>
+      <c r="Q9" s="140" t="s">
+        <v>160</v>
+      </c>
+      <c r="R9" s="140" t="s">
+        <v>98</v>
+      </c>
+      <c r="S9" s="140" t="s">
+        <v>160</v>
+      </c>
+      <c r="T9" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="U9" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="V9" s="140"/>
+      <c r="W9" s="140" t="s">
+        <v>154</v>
+      </c>
+      <c r="X9" s="140"/>
+      <c r="Y9" s="140"/>
+      <c r="Z9" s="140"/>
+      <c r="AA9" s="140"/>
+      <c r="AB9" s="140"/>
+      <c r="AC9" s="140"/>
+    </row>
+    <row r="10" spans="1:33" s="3" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A10" s="65"/>
+      <c r="B10" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" s="147" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="74">
+        <v>4</v>
+      </c>
+      <c r="L10" s="74">
+        <v>0</v>
+      </c>
+      <c r="M10" s="74"/>
+      <c r="N10" s="142"/>
+      <c r="O10" s="142"/>
+      <c r="P10" s="142"/>
+      <c r="Q10" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="R10" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="S10" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="T10" s="142"/>
+      <c r="U10" s="142"/>
+      <c r="V10" s="142"/>
+      <c r="W10" s="142" t="s">
+        <v>154</v>
+      </c>
+      <c r="X10" s="142"/>
+      <c r="Y10" s="142"/>
+      <c r="Z10" s="142"/>
+      <c r="AA10" s="142"/>
+      <c r="AB10" s="142"/>
+      <c r="AC10" s="142"/>
+    </row>
+    <row r="11" spans="1:33" s="15" customFormat="1" ht="12">
+      <c r="B11" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J11" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="K11" s="74">
+        <v>3</v>
+      </c>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="140" t="s">
+        <v>168</v>
+      </c>
+      <c r="O11" s="140"/>
+      <c r="P11" s="140"/>
+      <c r="Q11" s="140" t="s">
+        <v>160</v>
+      </c>
+      <c r="R11" s="140" t="s">
+        <v>98</v>
+      </c>
+      <c r="S11" s="140" t="s">
+        <v>160</v>
+      </c>
+      <c r="T11" s="140" t="s">
+        <v>169</v>
+      </c>
+      <c r="U11" s="140" t="s">
+        <v>169</v>
+      </c>
+      <c r="V11" s="140"/>
+      <c r="W11" s="140" t="s">
+        <v>154</v>
+      </c>
+      <c r="X11" s="140"/>
+      <c r="Y11" s="140"/>
+      <c r="Z11" s="140"/>
+      <c r="AA11" s="140"/>
+      <c r="AB11" s="140"/>
+      <c r="AC11" s="140"/>
+    </row>
+    <row r="12" spans="1:33" s="3" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A12" s="65"/>
+      <c r="B12" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J12" s="147" t="s">
+        <v>156</v>
+      </c>
+      <c r="K12" s="74">
+        <v>4</v>
+      </c>
+      <c r="L12" s="74">
+        <v>0</v>
+      </c>
+      <c r="M12" s="74"/>
+      <c r="N12" s="142"/>
+      <c r="O12" s="142"/>
+      <c r="P12" s="142"/>
+      <c r="Q12" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="R12" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="S12" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="T12" s="142"/>
+      <c r="U12" s="142"/>
+      <c r="V12" s="142"/>
+      <c r="W12" s="142" t="s">
+        <v>154</v>
+      </c>
+      <c r="X12" s="142"/>
+      <c r="Y12" s="142"/>
+      <c r="Z12" s="142"/>
+      <c r="AA12" s="142"/>
+      <c r="AB12" s="142"/>
+      <c r="AC12" s="142"/>
+    </row>
+    <row r="13" spans="1:33" s="15" customFormat="1" ht="24" customHeight="1">
+      <c r="B13" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J13" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="K13" s="74">
+        <v>3</v>
+      </c>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="140" t="s">
+        <v>170</v>
+      </c>
+      <c r="O13" s="140"/>
+      <c r="P13" s="140"/>
+      <c r="Q13" s="140" t="s">
+        <v>160</v>
+      </c>
+      <c r="R13" s="140" t="s">
+        <v>98</v>
+      </c>
+      <c r="S13" s="140" t="s">
+        <v>160</v>
+      </c>
+      <c r="T13" s="140" t="s">
+        <v>171</v>
+      </c>
+      <c r="U13" s="140" t="s">
+        <v>171</v>
+      </c>
+      <c r="V13" s="140"/>
+      <c r="W13" s="140" t="s">
+        <v>154</v>
+      </c>
+      <c r="X13" s="140"/>
+      <c r="Y13" s="140"/>
+      <c r="Z13" s="140"/>
+      <c r="AA13" s="140"/>
+      <c r="AB13" s="140"/>
+      <c r="AC13" s="140"/>
+    </row>
+    <row r="14" spans="1:33" s="3" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="74">
+        <v>3</v>
+      </c>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="142"/>
+      <c r="Q14" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="R14" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="S14" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="T14" s="142"/>
+      <c r="U14" s="142"/>
+      <c r="V14" s="142"/>
+      <c r="W14" s="142" t="s">
+        <v>154</v>
+      </c>
+      <c r="X14" s="142"/>
+      <c r="Y14" s="142"/>
+      <c r="Z14" s="142"/>
+      <c r="AA14" s="142"/>
+      <c r="AB14" s="142"/>
+      <c r="AC14" s="142"/>
+      <c r="AG14" s="2"/>
+    </row>
+    <row r="15" spans="1:33" s="3" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B15" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" s="74">
+        <v>3</v>
+      </c>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="140" t="s">
+        <v>172</v>
+      </c>
+      <c r="O15" s="140"/>
+      <c r="P15" s="140"/>
+      <c r="Q15" s="140" t="s">
+        <v>160</v>
+      </c>
+      <c r="R15" s="140" t="s">
+        <v>98</v>
+      </c>
+      <c r="S15" s="140" t="s">
+        <v>160</v>
+      </c>
+      <c r="T15" s="140" t="s">
+        <v>173</v>
+      </c>
+      <c r="U15" s="140" t="s">
+        <v>173</v>
+      </c>
+      <c r="V15" s="140"/>
+      <c r="W15" s="140" t="s">
+        <v>154</v>
+      </c>
+      <c r="X15" s="140"/>
+      <c r="Y15" s="140"/>
+      <c r="Z15" s="140"/>
+      <c r="AA15" s="140"/>
+      <c r="AB15" s="140"/>
+      <c r="AC15" s="140"/>
+      <c r="AG15" s="2"/>
+    </row>
+    <row r="16" spans="1:33" s="3" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B16" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" s="74">
+        <v>3</v>
+      </c>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="142"/>
+      <c r="O16" s="142"/>
+      <c r="P16" s="142"/>
+      <c r="Q16" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="R16" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="S16" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="T16" s="142"/>
+      <c r="U16" s="142"/>
+      <c r="V16" s="142"/>
+      <c r="W16" s="142" t="s">
+        <v>154</v>
+      </c>
+      <c r="X16" s="142"/>
+      <c r="Y16" s="142"/>
+      <c r="Z16" s="142"/>
+      <c r="AA16" s="142"/>
+      <c r="AB16" s="142"/>
+      <c r="AC16" s="142"/>
+      <c r="AG16" s="2"/>
+    </row>
+    <row r="17" spans="1:33" s="3" customFormat="1" ht="36">
+      <c r="A17" s="2"/>
+      <c r="B17" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" s="147"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" s="151"/>
+      <c r="P17" s="151"/>
+      <c r="Q17" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="R17" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="S17" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="T17" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="U17" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="V17" s="152"/>
+      <c r="W17" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="X17" s="152"/>
+      <c r="Y17" s="152"/>
+      <c r="Z17" s="152"/>
+      <c r="AA17" s="152"/>
+      <c r="AB17" s="152"/>
+      <c r="AC17" s="153"/>
+      <c r="AG17" s="2"/>
+    </row>
+    <row r="18" spans="1:33" s="3" customFormat="1" ht="372">
+      <c r="A18" s="2"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="155"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="O18" s="151"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="R18" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="S18" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="T18" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="U18" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="V18" s="152"/>
+      <c r="W18" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="X18" s="152"/>
+      <c r="Y18" s="152"/>
+      <c r="Z18" s="152"/>
+      <c r="AA18" s="152"/>
+      <c r="AB18" s="152"/>
+      <c r="AC18" s="153"/>
+      <c r="AG18" s="2"/>
+    </row>
+    <row r="19" spans="1:33" s="3" customFormat="1" ht="48">
+      <c r="A19" s="2"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="148" t="s">
+        <v>176</v>
+      </c>
+      <c r="O19" s="151"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="R19" s="157" t="s">
+        <v>98</v>
+      </c>
+      <c r="S19" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="T19" s="80" t="s">
+        <v>177</v>
+      </c>
+      <c r="U19" s="80" t="s">
+        <v>177</v>
+      </c>
+      <c r="V19" s="158"/>
+      <c r="W19" s="157" t="s">
+        <v>154</v>
+      </c>
+      <c r="X19" s="158"/>
+      <c r="Y19" s="158"/>
+      <c r="Z19" s="158"/>
+      <c r="AA19" s="158"/>
+      <c r="AB19" s="158"/>
+      <c r="AC19" s="159"/>
+      <c r="AG19" s="2"/>
+    </row>
+    <row r="20" spans="1:33" s="3" customFormat="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AG20" s="2"/>
+    </row>
+    <row r="21" spans="1:33" s="3" customFormat="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AG21" s="2"/>
+    </row>
+    <row r="22" spans="1:33" s="3" customFormat="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AG22" s="2"/>
+    </row>
+    <row r="23" spans="1:33" s="3" customFormat="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AG23" s="2"/>
+    </row>
+    <row r="24" spans="1:33" s="3" customFormat="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AG24" s="2"/>
+    </row>
+    <row r="25" spans="1:33" s="3" customFormat="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AG25" s="2"/>
+    </row>
+    <row r="26" spans="1:33" s="3" customFormat="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AG26" s="2"/>
+    </row>
+    <row r="27" spans="1:33" s="3" customFormat="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AG27" s="2"/>
+    </row>
+    <row r="28" spans="1:33" s="3" customFormat="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AG28" s="2"/>
+    </row>
+    <row r="29" spans="1:33">
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="60"/>
+    </row>
+    <row r="30" spans="1:33">
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="60"/>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="60"/>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="60"/>
+    </row>
+    <row r="33" spans="2:21">
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="64"/>
+      <c r="T33" s="64"/>
+      <c r="U33" s="60"/>
+    </row>
+    <row r="34" spans="2:21">
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="64"/>
+      <c r="T34" s="64"/>
+      <c r="U34" s="60"/>
+    </row>
+    <row r="35" spans="2:21">
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="60"/>
+    </row>
+    <row r="36" spans="2:21">
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="60"/>
+    </row>
+    <row r="37" spans="2:21">
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="60"/>
+    </row>
+    <row r="38" spans="2:21">
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="64"/>
+      <c r="R38" s="64"/>
+      <c r="S38" s="64"/>
+      <c r="T38" s="64"/>
+      <c r="U38" s="60"/>
+    </row>
+    <row r="39" spans="2:21">
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="64"/>
+      <c r="R39" s="64"/>
+      <c r="S39" s="64"/>
+      <c r="T39" s="64"/>
+      <c r="U39" s="60"/>
+    </row>
+    <row r="40" spans="2:21">
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="64"/>
+      <c r="R40" s="64"/>
+      <c r="S40" s="64"/>
+      <c r="T40" s="64"/>
+      <c r="U40" s="60"/>
+    </row>
+    <row r="41" spans="2:21">
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="64"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="64"/>
+      <c r="T41" s="64"/>
+      <c r="U41" s="60"/>
+    </row>
+    <row r="42" spans="2:21">
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="64"/>
+      <c r="T42" s="64"/>
+      <c r="U42" s="60"/>
+    </row>
+    <row r="43" spans="2:21">
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="64"/>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="64"/>
+      <c r="R43" s="64"/>
+      <c r="S43" s="64"/>
+      <c r="T43" s="64"/>
+      <c r="U43" s="60"/>
+    </row>
+    <row r="44" spans="2:21">
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="64"/>
+      <c r="O44" s="64"/>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="64"/>
+      <c r="R44" s="64"/>
+      <c r="S44" s="64"/>
+      <c r="T44" s="64"/>
+      <c r="U44" s="60"/>
+    </row>
+    <row r="45" spans="2:21">
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="64"/>
+      <c r="R45" s="64"/>
+      <c r="S45" s="64"/>
+      <c r="T45" s="64"/>
+      <c r="U45" s="60"/>
+    </row>
+    <row r="46" spans="2:21">
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="64"/>
+      <c r="O46" s="64"/>
+      <c r="P46" s="64"/>
+      <c r="Q46" s="64"/>
+      <c r="R46" s="64"/>
+      <c r="S46" s="64"/>
+      <c r="T46" s="64"/>
+      <c r="U46" s="60"/>
+    </row>
+    <row r="47" spans="2:21">
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="64"/>
+      <c r="Q47" s="64"/>
+      <c r="R47" s="64"/>
+      <c r="S47" s="64"/>
+      <c r="T47" s="64"/>
+      <c r="U47" s="60"/>
+    </row>
+    <row r="48" spans="2:21">
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="60"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="64"/>
+      <c r="P48" s="64"/>
+      <c r="Q48" s="64"/>
+      <c r="R48" s="64"/>
+      <c r="S48" s="64"/>
+      <c r="T48" s="64"/>
+      <c r="U48" s="60"/>
+    </row>
+    <row r="49" spans="2:21">
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="60"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="64"/>
+      <c r="P49" s="64"/>
+      <c r="Q49" s="64"/>
+      <c r="R49" s="64"/>
+      <c r="S49" s="64"/>
+      <c r="T49" s="64"/>
+      <c r="U49" s="60"/>
+    </row>
+    <row r="50" spans="2:21">
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="60"/>
+      <c r="N50" s="64"/>
+      <c r="O50" s="64"/>
+      <c r="P50" s="64"/>
+      <c r="Q50" s="64"/>
+      <c r="R50" s="64"/>
+      <c r="S50" s="64"/>
+      <c r="T50" s="64"/>
+      <c r="U50" s="60"/>
+    </row>
+    <row r="51" spans="2:21">
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="64"/>
+      <c r="R51" s="64"/>
+      <c r="S51" s="64"/>
+      <c r="T51" s="64"/>
+      <c r="U51" s="60"/>
+    </row>
+    <row r="52" spans="2:21">
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="63"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="63"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="64"/>
+      <c r="P52" s="64"/>
+      <c r="Q52" s="64"/>
+      <c r="R52" s="64"/>
+      <c r="S52" s="64"/>
+      <c r="T52" s="64"/>
+      <c r="U52" s="60"/>
+    </row>
+    <row r="53" spans="2:21">
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="64"/>
+      <c r="R53" s="64"/>
+      <c r="S53" s="64"/>
+      <c r="T53" s="64"/>
+      <c r="U53" s="60"/>
+    </row>
+    <row r="54" spans="2:21">
+      <c r="B54" s="60"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="63"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="64"/>
+      <c r="O54" s="64"/>
+      <c r="P54" s="64"/>
+      <c r="Q54" s="64"/>
+      <c r="R54" s="64"/>
+      <c r="S54" s="64"/>
+      <c r="T54" s="64"/>
+      <c r="U54" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="83">
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
+  <oleObjects>
+    <oleObject progId="Visio.Drawing.11" shapeId="19457" r:id="rId2"/>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AG55"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" style="54" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="19" style="2" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" style="55" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="24.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" style="55" customWidth="1"/>
+    <col min="19" max="19" width="24.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.85546875" style="55" customWidth="1"/>
+    <col min="21" max="21" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="9.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" style="2" customWidth="1"/>
+    <col min="26" max="27" width="13.5703125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="39.7109375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="28.5703125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="12.140625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="8.28515625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="38.85546875" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="30.5703125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="D1" s="81"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+    </row>
+    <row r="2" spans="1:33" ht="25.5" customHeight="1">
+      <c r="B2" s="133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="135" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="135"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="131" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="132"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="132"/>
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="23.25">
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB3" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="41"/>
+    </row>
+    <row r="4" spans="1:33" s="3" customFormat="1" ht="144">
+      <c r="A4" s="2"/>
+      <c r="B4" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" s="74">
+        <v>2</v>
+      </c>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="O4" s="148"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="R4" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="S4" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="T4" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="U4" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="V4" s="150"/>
+      <c r="W4" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="X4" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y4" s="74">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="150"/>
+      <c r="AB4" s="150"/>
+      <c r="AC4" s="74"/>
+      <c r="AG4" s="2"/>
+    </row>
+    <row r="5" spans="1:33" s="3" customFormat="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="K5" s="74">
+        <v>2</v>
+      </c>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="O5" s="148"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="R5" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="S5" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="T5" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="U5" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="V5" s="150"/>
+      <c r="W5" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="X5" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y5" s="74">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="150"/>
+      <c r="AB5" s="150"/>
+      <c r="AC5" s="74"/>
+      <c r="AG5" s="2"/>
+    </row>
+    <row r="6" spans="1:33" s="15" customFormat="1" ht="36">
+      <c r="B6" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J6" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="74">
+        <v>3</v>
+      </c>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="O6" s="148"/>
+      <c r="P6" s="149"/>
+      <c r="Q6" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="R6" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="S6" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="T6" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="U6" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="V6" s="147"/>
+      <c r="W6" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="X6" s="147"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="74"/>
+    </row>
+    <row r="7" spans="1:33" s="3" customFormat="1" ht="60">
+      <c r="A7" s="60"/>
+      <c r="B7" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" s="74">
+        <v>1</v>
+      </c>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="O7" s="148"/>
+      <c r="P7" s="149"/>
+      <c r="Q7" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="R7" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="S7" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="T7" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="U7" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="X7" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y7" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74"/>
+      <c r="AG7" s="2"/>
+    </row>
+    <row r="8" spans="1:33" s="3" customFormat="1">
+      <c r="A8" s="60"/>
+      <c r="B8" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J8" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="74">
+        <v>1</v>
+      </c>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="140" t="s">
+        <v>166</v>
+      </c>
+      <c r="O8" s="140"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="140" t="s">
+        <v>160</v>
+      </c>
+      <c r="R8" s="140" t="s">
+        <v>98</v>
+      </c>
+      <c r="S8" s="140" t="s">
+        <v>160</v>
+      </c>
+      <c r="T8" s="140" t="s">
+        <v>167</v>
+      </c>
+      <c r="U8" s="140" t="s">
+        <v>167</v>
+      </c>
+      <c r="V8" s="140"/>
+      <c r="W8" s="140" t="s">
+        <v>154</v>
+      </c>
+      <c r="X8" s="140"/>
+      <c r="Y8" s="140"/>
+      <c r="Z8" s="140"/>
+      <c r="AA8" s="140"/>
+      <c r="AB8" s="140"/>
+      <c r="AC8" s="140"/>
+      <c r="AG8" s="2"/>
+    </row>
+    <row r="9" spans="1:33" s="3" customFormat="1">
+      <c r="A9" s="60"/>
+      <c r="B9" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J9" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9" s="74">
+        <v>40</v>
+      </c>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="142"/>
+      <c r="O9" s="142"/>
+      <c r="P9" s="142"/>
+      <c r="Q9" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="R9" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="S9" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="T9" s="142"/>
+      <c r="U9" s="142"/>
+      <c r="V9" s="142"/>
+      <c r="W9" s="142" t="s">
+        <v>154</v>
+      </c>
+      <c r="X9" s="142"/>
+      <c r="Y9" s="142"/>
+      <c r="Z9" s="142"/>
+      <c r="AA9" s="142"/>
+      <c r="AB9" s="142"/>
+      <c r="AC9" s="142"/>
+      <c r="AG9" s="2"/>
+    </row>
+    <row r="10" spans="1:33" s="15" customFormat="1" ht="12">
+      <c r="B10" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10" s="74">
+        <v>3</v>
+      </c>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="140" t="s">
+        <v>168</v>
+      </c>
+      <c r="O10" s="140"/>
+      <c r="P10" s="140"/>
+      <c r="Q10" s="140" t="s">
+        <v>160</v>
+      </c>
+      <c r="R10" s="140" t="s">
+        <v>98</v>
+      </c>
+      <c r="S10" s="140" t="s">
+        <v>160</v>
+      </c>
+      <c r="T10" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="U10" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="V10" s="140"/>
+      <c r="W10" s="140" t="s">
+        <v>154</v>
+      </c>
+      <c r="X10" s="140"/>
+      <c r="Y10" s="140"/>
+      <c r="Z10" s="140"/>
+      <c r="AA10" s="140"/>
+      <c r="AB10" s="140"/>
+      <c r="AC10" s="140"/>
+    </row>
+    <row r="11" spans="1:33" s="3" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A11" s="65"/>
+      <c r="B11" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J11" s="147" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" s="74">
+        <v>4</v>
+      </c>
+      <c r="L11" s="74">
+        <v>0</v>
+      </c>
+      <c r="M11" s="74"/>
+      <c r="N11" s="142"/>
+      <c r="O11" s="142"/>
+      <c r="P11" s="142"/>
+      <c r="Q11" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="R11" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="S11" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="T11" s="142"/>
+      <c r="U11" s="142"/>
+      <c r="V11" s="142"/>
+      <c r="W11" s="142" t="s">
+        <v>154</v>
+      </c>
+      <c r="X11" s="142"/>
+      <c r="Y11" s="142"/>
+      <c r="Z11" s="142"/>
+      <c r="AA11" s="142"/>
+      <c r="AB11" s="142"/>
+      <c r="AC11" s="142"/>
+    </row>
+    <row r="12" spans="1:33" s="15" customFormat="1" ht="12">
+      <c r="B12" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J12" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="K12" s="74">
+        <v>3</v>
+      </c>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="140" t="s">
+        <v>168</v>
+      </c>
+      <c r="O12" s="140"/>
+      <c r="P12" s="140"/>
+      <c r="Q12" s="140" t="s">
+        <v>160</v>
+      </c>
+      <c r="R12" s="140" t="s">
+        <v>98</v>
+      </c>
+      <c r="S12" s="140" t="s">
+        <v>160</v>
+      </c>
+      <c r="T12" s="140" t="s">
+        <v>169</v>
+      </c>
+      <c r="U12" s="140" t="s">
+        <v>169</v>
+      </c>
+      <c r="V12" s="140"/>
+      <c r="W12" s="140" t="s">
+        <v>154</v>
+      </c>
+      <c r="X12" s="140"/>
+      <c r="Y12" s="140"/>
+      <c r="Z12" s="140"/>
+      <c r="AA12" s="140"/>
+      <c r="AB12" s="140"/>
+      <c r="AC12" s="140"/>
+    </row>
+    <row r="13" spans="1:33" s="3" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A13" s="65"/>
+      <c r="B13" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J13" s="147" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="74">
+        <v>4</v>
+      </c>
+      <c r="L13" s="74">
+        <v>0</v>
+      </c>
+      <c r="M13" s="74"/>
+      <c r="N13" s="142"/>
+      <c r="O13" s="142"/>
+      <c r="P13" s="142"/>
+      <c r="Q13" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="R13" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="S13" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="T13" s="142"/>
+      <c r="U13" s="142"/>
+      <c r="V13" s="142"/>
+      <c r="W13" s="142" t="s">
+        <v>154</v>
+      </c>
+      <c r="X13" s="142"/>
+      <c r="Y13" s="142"/>
+      <c r="Z13" s="142"/>
+      <c r="AA13" s="142"/>
+      <c r="AB13" s="142"/>
+      <c r="AC13" s="142"/>
+    </row>
+    <row r="14" spans="1:33" s="15" customFormat="1" ht="24" customHeight="1">
+      <c r="B14" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="74">
+        <v>3</v>
+      </c>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="140" t="s">
+        <v>170</v>
+      </c>
+      <c r="O14" s="140"/>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="140" t="s">
+        <v>160</v>
+      </c>
+      <c r="R14" s="140" t="s">
+        <v>98</v>
+      </c>
+      <c r="S14" s="140" t="s">
+        <v>160</v>
+      </c>
+      <c r="T14" s="140" t="s">
+        <v>171</v>
+      </c>
+      <c r="U14" s="140" t="s">
+        <v>171</v>
+      </c>
+      <c r="V14" s="140"/>
+      <c r="W14" s="140" t="s">
+        <v>154</v>
+      </c>
+      <c r="X14" s="140"/>
+      <c r="Y14" s="140"/>
+      <c r="Z14" s="140"/>
+      <c r="AA14" s="140"/>
+      <c r="AB14" s="140"/>
+      <c r="AC14" s="140"/>
+    </row>
+    <row r="15" spans="1:33" s="3" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" s="74">
+        <v>3</v>
+      </c>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="142"/>
+      <c r="P15" s="142"/>
+      <c r="Q15" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="R15" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="S15" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="T15" s="142"/>
+      <c r="U15" s="142"/>
+      <c r="V15" s="142"/>
+      <c r="W15" s="142" t="s">
+        <v>154</v>
+      </c>
+      <c r="X15" s="142"/>
+      <c r="Y15" s="142"/>
+      <c r="Z15" s="142"/>
+      <c r="AA15" s="142"/>
+      <c r="AB15" s="142"/>
+      <c r="AC15" s="142"/>
+      <c r="AG15" s="2"/>
+    </row>
+    <row r="16" spans="1:33" s="3" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B16" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" s="74">
+        <v>3</v>
+      </c>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="140" t="s">
+        <v>172</v>
+      </c>
+      <c r="O16" s="140"/>
+      <c r="P16" s="140"/>
+      <c r="Q16" s="140" t="s">
+        <v>160</v>
+      </c>
+      <c r="R16" s="140" t="s">
+        <v>98</v>
+      </c>
+      <c r="S16" s="140" t="s">
+        <v>160</v>
+      </c>
+      <c r="T16" s="140" t="s">
+        <v>173</v>
+      </c>
+      <c r="U16" s="140" t="s">
+        <v>173</v>
+      </c>
+      <c r="V16" s="140"/>
+      <c r="W16" s="140" t="s">
+        <v>154</v>
+      </c>
+      <c r="X16" s="140"/>
+      <c r="Y16" s="140"/>
+      <c r="Z16" s="140"/>
+      <c r="AA16" s="140"/>
+      <c r="AB16" s="140"/>
+      <c r="AC16" s="140"/>
+      <c r="AG16" s="2"/>
+    </row>
+    <row r="17" spans="1:33" s="3" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B17" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" s="74">
+        <v>3</v>
+      </c>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="142"/>
+      <c r="O17" s="142"/>
+      <c r="P17" s="142"/>
+      <c r="Q17" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="R17" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="S17" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="T17" s="142"/>
+      <c r="U17" s="142"/>
+      <c r="V17" s="142"/>
+      <c r="W17" s="142" t="s">
+        <v>154</v>
+      </c>
+      <c r="X17" s="142"/>
+      <c r="Y17" s="142"/>
+      <c r="Z17" s="142"/>
+      <c r="AA17" s="142"/>
+      <c r="AB17" s="142"/>
+      <c r="AC17" s="142"/>
+      <c r="AG17" s="2"/>
+    </row>
+    <row r="18" spans="1:33" s="3" customFormat="1" ht="36">
+      <c r="A18" s="2"/>
+      <c r="B18" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" s="147"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="O18" s="151"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="R18" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="S18" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="T18" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="U18" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="V18" s="152"/>
+      <c r="W18" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="X18" s="152"/>
+      <c r="Y18" s="152"/>
+      <c r="Z18" s="152"/>
+      <c r="AA18" s="152"/>
+      <c r="AB18" s="152"/>
+      <c r="AC18" s="153"/>
+      <c r="AG18" s="2"/>
+    </row>
+    <row r="19" spans="1:33" s="3" customFormat="1" ht="372">
+      <c r="A19" s="2"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="O19" s="151"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="R19" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="S19" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="T19" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="U19" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="V19" s="152"/>
+      <c r="W19" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="X19" s="152"/>
+      <c r="Y19" s="152"/>
+      <c r="Z19" s="152"/>
+      <c r="AA19" s="152"/>
+      <c r="AB19" s="152"/>
+      <c r="AC19" s="153"/>
+      <c r="AG19" s="2"/>
+    </row>
+    <row r="20" spans="1:33" s="3" customFormat="1" ht="48">
+      <c r="A20" s="2"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="155"/>
+      <c r="K20" s="155"/>
+      <c r="L20" s="155"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="148" t="s">
+        <v>176</v>
+      </c>
+      <c r="O20" s="151"/>
+      <c r="P20" s="151"/>
+      <c r="Q20" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="R20" s="157" t="s">
+        <v>98</v>
+      </c>
+      <c r="S20" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="T20" s="80" t="s">
+        <v>177</v>
+      </c>
+      <c r="U20" s="80" t="s">
+        <v>177</v>
+      </c>
+      <c r="V20" s="158"/>
+      <c r="W20" s="157" t="s">
+        <v>154</v>
+      </c>
+      <c r="X20" s="158"/>
+      <c r="Y20" s="158"/>
+      <c r="Z20" s="158"/>
+      <c r="AA20" s="158"/>
+      <c r="AB20" s="158"/>
+      <c r="AC20" s="159"/>
+      <c r="AG20" s="2"/>
+    </row>
+    <row r="21" spans="1:33" s="3" customFormat="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AG21" s="2"/>
+    </row>
+    <row r="22" spans="1:33" s="3" customFormat="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AG22" s="2"/>
+    </row>
+    <row r="23" spans="1:33" s="3" customFormat="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AG23" s="2"/>
+    </row>
+    <row r="24" spans="1:33" s="3" customFormat="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AG24" s="2"/>
+    </row>
+    <row r="25" spans="1:33" s="3" customFormat="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AG25" s="2"/>
+    </row>
+    <row r="26" spans="1:33" s="3" customFormat="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AG26" s="2"/>
+    </row>
+    <row r="27" spans="1:33" s="3" customFormat="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AG27" s="2"/>
+    </row>
+    <row r="28" spans="1:33" s="3" customFormat="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AG28" s="2"/>
+    </row>
+    <row r="29" spans="1:33" s="3" customFormat="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AG29" s="2"/>
+    </row>
+    <row r="30" spans="1:33">
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="60"/>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="60"/>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="60"/>
+    </row>
+    <row r="33" spans="2:21">
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="64"/>
+      <c r="T33" s="64"/>
+      <c r="U33" s="60"/>
+    </row>
+    <row r="34" spans="2:21">
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="64"/>
+      <c r="T34" s="64"/>
+      <c r="U34" s="60"/>
+    </row>
+    <row r="35" spans="2:21">
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="60"/>
+    </row>
+    <row r="36" spans="2:21">
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="60"/>
+    </row>
+    <row r="37" spans="2:21">
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="60"/>
+    </row>
+    <row r="38" spans="2:21">
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="64"/>
+      <c r="R38" s="64"/>
+      <c r="S38" s="64"/>
+      <c r="T38" s="64"/>
+      <c r="U38" s="60"/>
+    </row>
+    <row r="39" spans="2:21">
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="64"/>
+      <c r="R39" s="64"/>
+      <c r="S39" s="64"/>
+      <c r="T39" s="64"/>
+      <c r="U39" s="60"/>
+    </row>
+    <row r="40" spans="2:21">
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="64"/>
+      <c r="R40" s="64"/>
+      <c r="S40" s="64"/>
+      <c r="T40" s="64"/>
+      <c r="U40" s="60"/>
+    </row>
+    <row r="41" spans="2:21">
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="64"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="64"/>
+      <c r="T41" s="64"/>
+      <c r="U41" s="60"/>
+    </row>
+    <row r="42" spans="2:21">
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="64"/>
+      <c r="T42" s="64"/>
+      <c r="U42" s="60"/>
+    </row>
+    <row r="43" spans="2:21">
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="64"/>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="64"/>
+      <c r="R43" s="64"/>
+      <c r="S43" s="64"/>
+      <c r="T43" s="64"/>
+      <c r="U43" s="60"/>
+    </row>
+    <row r="44" spans="2:21">
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="64"/>
+      <c r="O44" s="64"/>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="64"/>
+      <c r="R44" s="64"/>
+      <c r="S44" s="64"/>
+      <c r="T44" s="64"/>
+      <c r="U44" s="60"/>
+    </row>
+    <row r="45" spans="2:21">
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="64"/>
+      <c r="R45" s="64"/>
+      <c r="S45" s="64"/>
+      <c r="T45" s="64"/>
+      <c r="U45" s="60"/>
+    </row>
+    <row r="46" spans="2:21">
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="64"/>
+      <c r="O46" s="64"/>
+      <c r="P46" s="64"/>
+      <c r="Q46" s="64"/>
+      <c r="R46" s="64"/>
+      <c r="S46" s="64"/>
+      <c r="T46" s="64"/>
+      <c r="U46" s="60"/>
+    </row>
+    <row r="47" spans="2:21">
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="64"/>
+      <c r="Q47" s="64"/>
+      <c r="R47" s="64"/>
+      <c r="S47" s="64"/>
+      <c r="T47" s="64"/>
+      <c r="U47" s="60"/>
+    </row>
+    <row r="48" spans="2:21">
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="60"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="64"/>
+      <c r="P48" s="64"/>
+      <c r="Q48" s="64"/>
+      <c r="R48" s="64"/>
+      <c r="S48" s="64"/>
+      <c r="T48" s="64"/>
+      <c r="U48" s="60"/>
+    </row>
+    <row r="49" spans="2:21">
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="60"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="64"/>
+      <c r="P49" s="64"/>
+      <c r="Q49" s="64"/>
+      <c r="R49" s="64"/>
+      <c r="S49" s="64"/>
+      <c r="T49" s="64"/>
+      <c r="U49" s="60"/>
+    </row>
+    <row r="50" spans="2:21">
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="60"/>
+      <c r="N50" s="64"/>
+      <c r="O50" s="64"/>
+      <c r="P50" s="64"/>
+      <c r="Q50" s="64"/>
+      <c r="R50" s="64"/>
+      <c r="S50" s="64"/>
+      <c r="T50" s="64"/>
+      <c r="U50" s="60"/>
+    </row>
+    <row r="51" spans="2:21">
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="64"/>
+      <c r="R51" s="64"/>
+      <c r="S51" s="64"/>
+      <c r="T51" s="64"/>
+      <c r="U51" s="60"/>
+    </row>
+    <row r="52" spans="2:21">
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="63"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="63"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="64"/>
+      <c r="P52" s="64"/>
+      <c r="Q52" s="64"/>
+      <c r="R52" s="64"/>
+      <c r="S52" s="64"/>
+      <c r="T52" s="64"/>
+      <c r="U52" s="60"/>
+    </row>
+    <row r="53" spans="2:21">
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="64"/>
+      <c r="R53" s="64"/>
+      <c r="S53" s="64"/>
+      <c r="T53" s="64"/>
+      <c r="U53" s="60"/>
+    </row>
+    <row r="54" spans="2:21">
+      <c r="B54" s="60"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="63"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="64"/>
+      <c r="O54" s="64"/>
+      <c r="P54" s="64"/>
+      <c r="Q54" s="64"/>
+      <c r="R54" s="64"/>
+      <c r="S54" s="64"/>
+      <c r="T54" s="64"/>
+      <c r="U54" s="60"/>
+    </row>
+    <row r="55" spans="2:21">
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="63"/>
+      <c r="M55" s="60"/>
+      <c r="N55" s="64"/>
+      <c r="O55" s="64"/>
+      <c r="P55" s="64"/>
+      <c r="Q55" s="64"/>
+      <c r="R55" s="64"/>
+      <c r="S55" s="64"/>
+      <c r="T55" s="64"/>
+      <c r="U55" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="83">
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AC14:AC15"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8330,7 +12729,7 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="16" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="16" customWidth="1"/>
@@ -8338,7 +12737,7 @@
     <col min="4" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:25">
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="23"/>
@@ -8358,7 +12757,7 @@
       <c r="X1" s="18"/>
       <c r="Y1" s="18"/>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:25">
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="22"/>
@@ -8378,7 +12777,7 @@
       <c r="X2" s="18"/>
       <c r="Y2" s="18"/>
     </row>
-    <row r="3" spans="2:25" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" ht="18">
       <c r="C3" s="20" t="s">
         <v>50</v>
       </c>
@@ -8403,7 +12802,7 @@
       <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25">
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="E4" s="18"/>
@@ -8425,7 +12824,7 @@
       <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25">
       <c r="B6" s="37" t="s">
         <v>51</v>
       </c>
@@ -8433,7 +12832,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25" ht="25.5">
       <c r="B7" s="32" t="s">
         <v>48</v>
       </c>
@@ -8441,7 +12840,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" ht="25.5">
       <c r="B8" s="32" t="s">
         <v>46</v>
       </c>
@@ -8449,7 +12848,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" ht="25.5">
       <c r="B9" s="32" t="s">
         <v>44</v>
       </c>
@@ -8457,7 +12856,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" ht="25.5">
       <c r="B10" s="32" t="s">
         <v>42</v>
       </c>
@@ -8465,7 +12864,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" ht="25.5">
       <c r="B11" s="32" t="s">
         <v>40</v>
       </c>
@@ -8473,7 +12872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" ht="25.5">
       <c r="B12" s="32" t="s">
         <v>38</v>
       </c>
@@ -8481,7 +12880,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" ht="25.5">
       <c r="B13" s="32" t="s">
         <v>36</v>
       </c>
@@ -8489,7 +12888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25" ht="25.5">
       <c r="B14" s="32" t="s">
         <v>34</v>
       </c>
@@ -8497,7 +12896,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25" ht="25.5">
       <c r="B15" s="32" t="s">
         <v>32</v>
       </c>
@@ -8505,7 +12904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" ht="25.5">
       <c r="B16" s="32" t="s">
         <v>30</v>
       </c>
@@ -8513,7 +12912,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" ht="25.5">
       <c r="B17" s="32" t="s">
         <v>28</v>
       </c>
@@ -8521,7 +12920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" ht="25.5">
       <c r="B18" s="32" t="s">
         <v>26</v>
       </c>
@@ -8529,7 +12928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" ht="25.5">
       <c r="B19" s="33" t="s">
         <v>24</v>
       </c>
@@ -8537,7 +12936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" ht="25.5">
       <c r="B20" s="32" t="s">
         <v>22</v>
       </c>
@@ -8545,7 +12944,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" ht="25.5">
       <c r="B21" s="32" t="s">
         <v>20</v>
       </c>
@@ -8553,7 +12952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" ht="25.5">
       <c r="B22" s="32" t="s">
         <v>18</v>
       </c>
@@ -8561,7 +12960,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" ht="25.5">
       <c r="B23" s="35" t="s">
         <v>16</v>
       </c>
@@ -8580,16 +12979,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -8638,39 +13036,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8685,10 +13069,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>